--- a/Wifi-433Mhz/composants.xlsx
+++ b/Wifi-433Mhz/composants.xlsx
@@ -8,25 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sylve\OneDrive\Bureau\bachelor\Wifi-433Mhz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85E85DF-5F36-4410-A853-70D9EB7EEC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2036284-74FF-456C-89EA-B06E2078F049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="wifi" sheetId="1" r:id="rId1"/>
-    <sheet name="433 MHz" sheetId="2" r:id="rId2"/>
+    <sheet name="datas" sheetId="3" r:id="rId1"/>
+    <sheet name="wifi" sheetId="1" r:id="rId2"/>
+    <sheet name="433 MHz" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>dongle wifi</t>
   </si>
@@ -38,6 +50,57 @@
   </si>
   <si>
     <t>https://mypublicwifi.com/publicwifi/fr/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">range </t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>Bps</t>
+  </si>
+  <si>
+    <t>bps</t>
+  </si>
+  <si>
+    <t>tx</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ch/ProductDetail/Linx-Technologies/TXM-433-LR?qs=K5ta8V%252BWhtYvM0CoITNZtw%3D%3D</t>
+  </si>
+  <si>
+    <t>rx</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ch/ProductDetail/Linx-Technologies/RXM-433-LR?qs=K5ta8V%252BWhtaoLY5zsCmDpA%3D%3D</t>
+  </si>
+  <si>
+    <t>limitations</t>
+  </si>
+  <si>
+    <t>Kbps</t>
+  </si>
+  <si>
+    <t>module</t>
+  </si>
+  <si>
+    <t>https://ch.farnell.com/fr-CH/digi-international/xb2b-wfst-001/module-xbee-2-4ghz-wifi-rpsma/dp/2343883</t>
+  </si>
+  <si>
+    <t>https://www.nordicsemi.com/Products/nRF7002</t>
+  </si>
+  <si>
+    <t>hc 12</t>
   </si>
 </sst>
 </file>
@@ -82,9 +145,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -101,6 +165,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>578539</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>13887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>372215</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>46540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C325DE89-69C5-0AA0-8189-161D6866A456}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5150539" y="924974"/>
+          <a:ext cx="8172501" cy="4038261"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -365,11 +478,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB7F001-F211-49E8-8D07-CF78FB7AC43D}">
+  <dimension ref="B9:F10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="10.90625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
+        <f>C10*8</f>
+        <v>9600</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:D6"/>
+  <dimension ref="B4:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -390,25 +551,73 @@
         <v>3</v>
       </c>
     </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{4DA6998D-50A2-4802-94F4-B760D56767B7}"/>
     <hyperlink ref="D6" r:id="rId2" xr:uid="{0C6BCFD2-0DC9-4271-8B4D-D0A91B41324B}"/>
+    <hyperlink ref="D11" r:id="rId3" xr:uid="{7B939000-CE37-41B8-95F1-E30EBD29EABD}"/>
+    <hyperlink ref="D9" r:id="rId4" xr:uid="{2DDA8713-B55C-4154-847C-3C17C097B063}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAE3DBD-7662-4309-938C-E83DFE746AE3}">
-  <dimension ref="A1"/>
+  <dimension ref="B5:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>